--- a/biology/Biologie cellulaire et moléculaire/Libération_du_calcium_induite_par_le_calcium/Libération_du_calcium_induite_par_le_calcium.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Libération_du_calcium_induite_par_le_calcium/Libération_du_calcium_induite_par_le_calcium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lib%C3%A9ration_du_calcium_induite_par_le_calcium</t>
+          <t>Libération_du_calcium_induite_par_le_calcium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La libération du calcium induite par le calcium (LCIC), encore appelée CICR (de l'anglais Calcium-Induced Calcium Release)[1] décrit un mécanisme biologique où des ions calcium libèrent des ions calcium Ca2+ contenus dans le réticulum endoplasmique ou le réticulum sarcoplasmique. Ce mécanisme a été découvert dans les muscles striés[2]. Il est aussi présent dans les neurones[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La libération du calcium induite par le calcium (LCIC), encore appelée CICR (de l'anglais Calcium-Induced Calcium Release) décrit un mécanisme biologique où des ions calcium libèrent des ions calcium Ca2+ contenus dans le réticulum endoplasmique ou le réticulum sarcoplasmique. Ce mécanisme a été découvert dans les muscles striés. Il est aussi présent dans les neurones
 Il joue un rôle fondamental dans le fonctionnement du cœur, où les cellules musculaires cardiaques se contractent à la suite d'une commande nerveuse motrice efférente qu'elles reçoivent depuis les centres supérieurs (et en particulier les systèmes nerveux sympathiques et parasympathiques).
 Ce mécanisme s'inscrit dans le contexte du couplage excitation-contraction des fibres musculaires cardiaques, différent de celui des muscles striés squelettiques
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lib%C3%A9ration_du_calcium_induite_par_le_calcium</t>
+          <t>Libération_du_calcium_induite_par_le_calcium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Mécanisme biologique du CICR</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ainsi lorsqu'un potentiel d'action musculaire parvient à un tubule transverse (tubule T), invagination du sarcolemme, ce dernier permet l'ouverture des récepteurs de la dihydropyridine (des canaux calciques dépendants du voltage, ci-après notés DHP-R).
 Leur ouverture entraîne une entrée d'ions calcium depuis le milieu extracellulaire vers le milieu intracellulaire de la fibre musculaire cardiaque, la concentration d'ions calcium intracellulaire augmente donc de façon modérée.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lib%C3%A9ration_du_calcium_induite_par_le_calcium</t>
+          <t>Libération_du_calcium_induite_par_le_calcium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Différences entre le muscle strié squelettique et strié cardiaque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le muscle strié squelettique il n'y a pas ce couplage dit chimique et le couplage est avant tout mécanique. Cela signifie que les DHP-R sont physiquement liés aux récepteurs à la ryanodine de type 1 cette fois-ci (notés Ryr1) et lorsqu'un potentiel d'action musculaire arrive au niveau du DHP-R d'un tubule T, celui-ci active par couplage mécanique les Ryr1.
 Cette différence fonctionnelle et spatiale au niveau de l'arrangement de ces deux récepteurs est importante pour expliquer certaines différences expérimentales entre les muscles striés squelettiques et cardiaques.
